--- a/2016년 재료비 8월/점핑클레이 재료비.xlsx
+++ b/2016년 재료비 8월/점핑클레이 재료비.xlsx
@@ -793,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -2218,6 +2218,12 @@
         <v>9000</v>
       </c>
       <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="F68" s="2">
+        <f>SUM(F2:F67)</f>
+        <v>594000</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:G67">

--- a/2016년 재료비 8월/점핑클레이 재료비.xlsx
+++ b/2016년 재료비 8월/점핑클레이 재료비.xlsx
@@ -795,19 +795,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/2016년 재료비 8월/점핑클레이 재료비.xlsx
+++ b/2016년 재료비 8월/점핑클레이 재료비.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="점핑클레이 재료비" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="87">
   <si>
     <t>*주야</t>
   </si>
@@ -48,24 +48,51 @@
     <t>1반</t>
   </si>
   <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>김승주</t>
+  </si>
+  <si>
     <t>이채윤</t>
   </si>
   <si>
+    <t>최정명</t>
+  </si>
+  <si>
+    <t>최하영</t>
+  </si>
+  <si>
     <t>2반</t>
   </si>
   <si>
     <t>전단비</t>
   </si>
   <si>
+    <t>조슬빈</t>
+  </si>
+  <si>
     <t>3반</t>
   </si>
   <si>
+    <t>조윤정</t>
+  </si>
+  <si>
+    <t>채수련</t>
+  </si>
+  <si>
     <t>최민영</t>
   </si>
   <si>
     <t>4반</t>
   </si>
   <si>
+    <t>고경빈</t>
+  </si>
+  <si>
     <t>김현서</t>
   </si>
   <si>
@@ -78,6 +105,9 @@
     <t>권민준</t>
   </si>
   <si>
+    <t>홍윤수</t>
+  </si>
+  <si>
     <t>6반</t>
   </si>
   <si>
@@ -93,6 +123,12 @@
     <t>윤수빈</t>
   </si>
   <si>
+    <t>자유수강대상자</t>
+  </si>
+  <si>
+    <t>임연진</t>
+  </si>
+  <si>
     <t>간태영</t>
   </si>
   <si>
@@ -111,33 +147,81 @@
     <t>서민경</t>
   </si>
   <si>
+    <t>원승현</t>
+  </si>
+  <si>
+    <t>홍윤성</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>엄태정</t>
+  </si>
+  <si>
     <t>김경철</t>
   </si>
   <si>
     <t>김민지</t>
   </si>
   <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
     <t>표소희</t>
   </si>
   <si>
+    <t>한채연</t>
+  </si>
+  <si>
     <t>3학년</t>
   </si>
   <si>
     <t>김태은</t>
   </si>
   <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>김현주</t>
+  </si>
+  <si>
     <t>안세연</t>
   </si>
   <si>
     <t>원효인</t>
   </si>
   <si>
+    <t>유슬아</t>
+  </si>
+  <si>
+    <t>김지원</t>
+  </si>
+  <si>
     <t>김사랑</t>
   </si>
   <si>
     <t>김유하</t>
   </si>
   <si>
+    <t>윤하영</t>
+  </si>
+  <si>
+    <t>조예인</t>
+  </si>
+  <si>
+    <t>신우원</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
     <t>유소현</t>
   </si>
   <si>
@@ -147,248 +231,52 @@
     <t>4학년</t>
   </si>
   <si>
+    <t>원명규</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>김지영</t>
+  </si>
+  <si>
     <t>5학년</t>
   </si>
   <si>
+    <t>한유진</t>
+  </si>
+  <si>
+    <t>고도영</t>
+  </si>
+  <si>
+    <t>김무경</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
     <t>유소희</t>
   </si>
   <si>
+    <t>황수빈</t>
+  </si>
+  <si>
     <t>김서하</t>
   </si>
   <si>
+    <t>이서정</t>
+  </si>
+  <si>
     <t>심예인</t>
   </si>
   <si>
-    <t>김민찬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김보영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최하영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최정명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김승주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조슬빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조윤정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고경빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍윤수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍윤성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>임연진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원승현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김시윤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한채연</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장예원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박주희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유슬아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤하영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조예인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신우원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이시은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원명규</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김서희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김무경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한유진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고도영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이서정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>6학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>강기쁨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문정아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>황수빈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채수련</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄태정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,35 +350,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,11 +388,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -795,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F68"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -847,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7">
         <v>9000</v>
@@ -868,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7">
         <v>9000</v>
@@ -889,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7">
         <v>9000</v>
@@ -910,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7">
         <v>9000</v>
@@ -931,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7">
         <v>9000</v>
@@ -952,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7">
         <v>9000</v>
@@ -967,13 +850,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7">
         <v>9000</v>
@@ -988,13 +871,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7">
         <v>9000</v>
@@ -1009,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7">
         <v>9000</v>
@@ -1027,16 +910,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7">
         <v>9000</v>
@@ -1051,13 +934,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7">
         <v>9000</v>
@@ -1072,13 +955,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7">
         <v>9000</v>
@@ -1093,13 +976,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7">
         <v>9000</v>
@@ -1114,13 +997,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7">
         <v>9000</v>
@@ -1135,13 +1018,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7">
         <v>9000</v>
@@ -1156,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7">
         <v>9000</v>
@@ -1177,13 +1060,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7">
         <v>9000</v>
@@ -1195,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>9</v>
@@ -1204,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7">
         <v>9000</v>
@@ -1216,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>9</v>
@@ -1225,28 +1108,30 @@
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F20" s="7">
         <v>9000</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4">
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7">
         <v>9000</v>
@@ -1258,16 +1143,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F22" s="7">
         <v>9000</v>
@@ -1279,16 +1164,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4">
         <v>8</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7">
         <v>9000</v>
@@ -1300,16 +1185,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="4">
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F24" s="7">
         <v>9000</v>
@@ -1321,16 +1206,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F25" s="7">
         <v>9000</v>
@@ -1342,16 +1227,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7">
         <v>9000</v>
@@ -1360,19 +1245,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7">
         <v>9000</v>
@@ -1384,37 +1269,39 @@
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4">
         <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F28" s="7">
         <v>9000</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F29" s="7">
         <v>9000</v>
@@ -1426,16 +1313,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F30" s="7">
         <v>9000</v>
@@ -1447,16 +1334,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7">
         <v>9000</v>
@@ -1465,19 +1352,19 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4">
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F32" s="7">
         <v>9000</v>
@@ -1489,16 +1376,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7">
         <v>9000</v>
@@ -1510,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F34" s="7">
         <v>9000</v>
@@ -1531,37 +1418,39 @@
         <v>7</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4">
         <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F35" s="7">
         <v>9000</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D36" s="4">
         <v>21</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F36" s="7">
         <v>9000</v>
@@ -1573,16 +1462,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4">
         <v>24</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F37" s="7">
         <v>9000</v>
@@ -1594,16 +1483,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D38" s="4">
         <v>25</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F38" s="7">
         <v>9000</v>
@@ -1615,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>9</v>
@@ -1624,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7">
         <v>9000</v>
@@ -1636,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>9</v>
@@ -1645,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F40" s="7">
         <v>9000</v>
@@ -1657,16 +1546,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F41" s="7">
         <v>9000</v>
@@ -1678,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>9</v>
@@ -1687,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F42" s="7">
         <v>9000</v>
@@ -1699,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>9</v>
@@ -1708,7 +1597,7 @@
         <v>19</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F43" s="7">
         <v>9000</v>
@@ -1720,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>9</v>
@@ -1729,7 +1618,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F44" s="7">
         <v>9000</v>
@@ -1741,16 +1630,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" s="4">
         <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7">
         <v>9000</v>
@@ -1762,16 +1651,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4">
         <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F46" s="7">
         <v>9000</v>
@@ -1783,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F47" s="7">
         <v>9000</v>
@@ -1804,16 +1693,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D48" s="4">
         <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F48" s="7">
         <v>9000</v>
@@ -1825,16 +1714,16 @@
         <v>7</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4">
         <v>23</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F49" s="7">
         <v>9000</v>
@@ -1846,16 +1735,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D50" s="4">
         <v>11</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F50" s="7">
         <v>9000</v>
@@ -1867,16 +1756,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D51" s="4">
         <v>16</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F51" s="7">
         <v>9000</v>
@@ -1888,16 +1777,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D52" s="4">
         <v>16</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F52" s="7">
         <v>9000</v>
@@ -1909,16 +1798,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D53" s="4">
         <v>26</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F53" s="7">
         <v>9000</v>
@@ -1930,37 +1819,39 @@
         <v>7</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4">
         <v>14</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F54" s="7">
         <v>9000</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" s="4">
         <v>7</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F55" s="7">
         <v>9000</v>
@@ -1972,16 +1863,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D56" s="4">
         <v>11</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F56" s="7">
         <v>9000</v>
@@ -1993,37 +1884,39 @@
         <v>7</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D57" s="4">
         <v>24</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F57" s="7">
         <v>9000</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F58" s="7">
         <v>9000</v>
@@ -2035,16 +1928,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D59" s="4">
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F59" s="7">
         <v>9000</v>
@@ -2056,16 +1949,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D60" s="4">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" s="7">
         <v>9000</v>
@@ -2077,16 +1970,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D61" s="4">
         <v>13</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F61" s="7">
         <v>9000</v>
@@ -2098,37 +1991,39 @@
         <v>7</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D62" s="4">
         <v>24</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F62" s="7">
         <v>9000</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D63" s="4">
         <v>6</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F63" s="7">
         <v>9000</v>
@@ -2140,16 +2035,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D64" s="4">
         <v>15</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F64" s="7">
         <v>9000</v>
@@ -2161,37 +2056,39 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D65" s="4">
         <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F65" s="7">
         <v>9000</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F66" s="7">
         <v>9000</v>
@@ -2203,16 +2100,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4">
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F67" s="7">
         <v>9000</v>
@@ -2226,14 +2123,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G67">
-    <sortCondition ref="B2:B67"/>
-    <sortCondition ref="C2:C67"/>
-    <sortCondition ref="D2:D67"/>
-  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
